--- a/KatalonProjects/miscData.xlsx
+++ b/KatalonProjects/miscData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -353,7 +353,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,7 +372,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5447</v>
+        <v>3701</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -380,7 +380,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5448</v>
+        <v>3702</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>

--- a/KatalonProjects/miscData.xlsx
+++ b/KatalonProjects/miscData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office\katalon\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0EB80E-7057-4B57-AC99-CB176288FDD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,7 +350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -372,7 +373,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3701</v>
+        <v>5448</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -380,7 +381,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3702</v>
+        <v>5449</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>

--- a/KatalonProjects/miscData.xlsx
+++ b/KatalonProjects/miscData.xlsx
@@ -372,7 +372,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3701</v>
+        <v>5448</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -380,7 +380,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3702</v>
+        <v>5449</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>

--- a/KatalonProjects/miscData.xlsx
+++ b/KatalonProjects/miscData.xlsx
@@ -372,7 +372,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5448</v>
+        <v>3701</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -380,7 +380,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5449</v>
+        <v>3703</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>

--- a/KatalonProjects/miscData.xlsx
+++ b/KatalonProjects/miscData.xlsx
@@ -32,7 +32,7 @@
     <t>newArrivalNumber</t>
   </si>
   <si>
-    <t>New Arrivals 2</t>
+    <t>New Arrivals 1</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/miscData.xlsx
+++ b/KatalonProjects/miscData.xlsx
@@ -32,7 +32,7 @@
     <t>newArrivalNumber</t>
   </si>
   <si>
-    <t>New Arrivals 1</t>
+    <t>New Arrivals 2</t>
   </si>
 </sst>
 </file>
